--- a/doc/2.システム設計/01_業務フロー/業務フロー　第4.0版.xlsx
+++ b/doc/2.システム設計/01_業務フロー/業務フロー　第4.0版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojimadaichi/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojimadaichi/Documents/GitHub/SSH48/doc/2.システム設計/01_業務フロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1029,23 +1029,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>248592</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263407</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>84327</xdr:rowOff>
+      <xdr:rowOff>65513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3999</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84328</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="AutoShape 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0945A8A2-7AE7-9448-BADC-8988FE30C8F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0945A8A2-7AE7-9448-BADC-8988FE30C8F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,8 +1055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="889313" y="1136940"/>
-          <a:ext cx="1036848" cy="594956"/>
+          <a:off x="263407" y="1250846"/>
+          <a:ext cx="1659703" cy="781155"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1151,7 +1151,27 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>さむいをチャットルームで入力</a:t>
+            <a:t>さむいを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>Slack_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>温度変更受付画面で入力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1166,28 +1186,26 @@
       <xdr:rowOff>146461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165335</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147917</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122296</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924550" y="1482313"/>
-          <a:ext cx="1119452" cy="1456"/>
+          <a:off x="1924550" y="1632831"/>
+          <a:ext cx="436709" cy="4058"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1216,22 +1234,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59766</xdr:rowOff>
+      <xdr:colOff>263408</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>282223</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
+      <xdr:colOff>291630</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C812DFA9-5A44-F442-9179-A80CFFE5BAFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C812DFA9-5A44-F442-9179-A80CFFE5BAFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,8 +1259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5334001" y="1247451"/>
-          <a:ext cx="1298222" cy="518375"/>
+          <a:off x="5381038" y="2317545"/>
+          <a:ext cx="1307629" cy="511319"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -1277,7 +1295,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slackbot</a:t>
+            <a:t>Slack_Google</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1287,7 +1305,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>との個人チャット画面</a:t>
+            <a:t>フォーム投稿画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1304,34 +1322,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>266314</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
+      <xdr:colOff>263408</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>268113</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>266314</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="2"/>
           <a:endCxn id="61" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6023647" y="1756419"/>
-          <a:ext cx="1799" cy="783582"/>
+        <a:xfrm>
+          <a:off x="6020741" y="2841037"/>
+          <a:ext cx="2906" cy="319854"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1375,7 +1392,7 @@
         <xdr:cNvPr id="114" name="AutoShape 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37617921-F356-3A46-A459-301C93018760}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37617921-F356-3A46-A459-301C93018760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1463,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FE58380-F185-A04A-9844-B71F5B1D71B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE58380-F185-A04A-9844-B71F5B1D71B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1516,7 @@
         <xdr:cNvPr id="62" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1594,7 @@
         <xdr:cNvPr id="77" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90FCE07F-F931-094B-97B8-D77CEB73D839}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FCE07F-F931-094B-97B8-D77CEB73D839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,6 +1633,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -1623,7 +1650,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slack</a:t>
+            <a:t>Google</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1633,7 +1660,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム投票画面</a:t>
+            <a:t>フォーム</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1650,13 +1677,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>255618</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75569</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>266314</xdr:colOff>
+      <xdr:colOff>255618</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57762</xdr:rowOff>
     </xdr:to>
@@ -1665,18 +1692,16 @@
         <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA08579D-B1DE-4942-9A76-13066B3DE85D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA08579D-B1DE-4942-9A76-13066B3DE85D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="61" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6012951" y="3067125"/>
-          <a:ext cx="10696" cy="734785"/>
+        <a:xfrm>
+          <a:off x="6011333" y="3687704"/>
+          <a:ext cx="1618" cy="264725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1720,7 +1745,7 @@
         <xdr:cNvPr id="83" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1810,7 @@
         <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B8EEBB-1C2C-764D-BE00-071C7A8F1B9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B8EEBB-1C2C-764D-BE00-071C7A8F1B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1863,7 @@
         <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1916,7 @@
         <xdr:cNvPr id="53" name="カギ線コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{991A7351-35F9-6444-B7A8-7EE76896C813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A7351-35F9-6444-B7A8-7EE76896C813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1971,7 @@
         <xdr:cNvPr id="76" name="直線コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2023,7 @@
         <xdr:cNvPr id="119" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{380732C7-CFB6-C64E-9222-29FBAF8E0CC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380732C7-CFB6-C64E-9222-29FBAF8E0CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2088,7 @@
         <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{685BF07F-1BF8-DF4C-B2A0-A281E946AAFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685BF07F-1BF8-DF4C-B2A0-A281E946AAFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,22 +2126,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>245533</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:colOff>283163</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>313266</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34863</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31044</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>110122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,8 +2151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5393266" y="7366001"/>
-          <a:ext cx="1354667" cy="424329"/>
+          <a:off x="5400793" y="8703734"/>
+          <a:ext cx="1347140" cy="418684"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2162,7 +2187,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slack</a:t>
+            <a:t>Slack_Airbo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2172,7 +2197,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム投票終了画面</a:t>
+            <a:t>部屋画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2195,16 +2220,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>289728</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>53202</xdr:rowOff>
+      <xdr:colOff>291630</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>131704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34C29803-108C-464C-A713-568385CE469A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C29803-108C-464C-A713-568385CE469A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,8 +2237,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6079066" y="7010400"/>
-          <a:ext cx="1862" cy="341069"/>
+          <a:off x="6045199" y="7072489"/>
+          <a:ext cx="3764" cy="265289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2242,14 +2267,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262467</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>290689</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>84668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38350</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>66572</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2257,7 +2282,7 @@
         <xdr:cNvPr id="126" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5380097" y="8043335"/>
+          <a:off x="5408319" y="9398001"/>
           <a:ext cx="1375142" cy="330919"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2303,7 +2328,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票終了メッセージ表示</a:t>
+            <a:t>投票結果メッセージ表示</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2320,22 +2345,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>287866</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:colOff>297274</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>109125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>289728</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>70136</xdr:rowOff>
+      <xdr:colOff>301037</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>94074</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8822AF-7E01-F846-924B-2533D62AC7C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8822AF-7E01-F846-924B-2533D62AC7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,8 +2368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6079066" y="7789334"/>
-          <a:ext cx="1862" cy="341069"/>
+          <a:off x="6054607" y="7766755"/>
+          <a:ext cx="3763" cy="285986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2372,23 +2397,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>309502</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>270436</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>10459</xdr:rowOff>
+      <xdr:colOff>251621</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="129" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,8 +2423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5477933" y="8847667"/>
-          <a:ext cx="1227170" cy="442259"/>
+          <a:off x="5427132" y="7344363"/>
+          <a:ext cx="1221526" cy="436614"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2434,7 +2459,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slack</a:t>
+            <a:t>Slack_</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2444,7 +2469,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム待機画面</a:t>
+            <a:t>ラズパイ信号送信画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2460,23 +2485,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>296332</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4702</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>126997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>298194</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>10869</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9408</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,8 +2509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6087532" y="8492067"/>
-          <a:ext cx="1862" cy="341069"/>
+          <a:off x="6081887" y="9139293"/>
+          <a:ext cx="4706" cy="258705"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2529,7 +2554,7 @@
         <xdr:cNvPr id="133" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18667537-CC9B-574C-8141-DDC95CA39C6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18667537-CC9B-574C-8141-DDC95CA39C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2600,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slack</a:t>
+            <a:t>Slack_Airbo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2585,7 +2610,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム投票中止画面</a:t>
+            <a:t>部屋画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2617,7 +2642,7 @@
         <xdr:cNvPr id="134" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09FFDB0B-4793-424F-A65A-92751034E13A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FFDB0B-4793-424F-A65A-92751034E13A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2720,7 @@
         <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3CE56E-E057-BB45-A5E0-F573E8036045}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3CE56E-E057-BB45-A5E0-F573E8036045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,147 +2729,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8060267" y="7823200"/>
-          <a:ext cx="1862" cy="341069"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>312770</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>120525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA8150F-28A8-9749-BD88-B9C609DA81E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7450667" y="9110133"/>
-          <a:ext cx="1227170" cy="442259"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Slack</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票ルーム待機画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>18795</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>129402</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB07BF5B-1607-0147-A238-592F25DAA550}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8060266" y="8763000"/>
           <a:ext cx="1862" cy="341069"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2889,7 +2773,7 @@
         <xdr:cNvPr id="140" name="カギ線コネクタ 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D55D093D-3A03-5746-926A-2653BF3A13DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55D093D-3A03-5746-926A-2653BF3A13DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2829,7 @@
         <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB5383D3-7E8A-7F45-A8B2-2ADED49EC02C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5383D3-7E8A-7F45-A8B2-2ADED49EC02C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +2882,7 @@
         <xdr:cNvPr id="50" name="直線コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,21 +2967,21 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>103482</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>109294</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75569</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,8 +2991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5540963" y="2540001"/>
-          <a:ext cx="965368" cy="527124"/>
+          <a:off x="5540963" y="3160891"/>
+          <a:ext cx="965368" cy="527123"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3159,23 +3043,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165335</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118298</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>39276</xdr:rowOff>
+      <xdr:rowOff>48684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2133</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274948</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>106039</xdr:rowOff>
+      <xdr:rowOff>115447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,8 +3069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3044002" y="1224609"/>
-          <a:ext cx="1436057" cy="518319"/>
+          <a:off x="2357261" y="1384536"/>
+          <a:ext cx="1436057" cy="518318"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3224,23 +3108,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2133</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147917</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274948</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>265289</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47037</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>11290</xdr:rowOff>
+      <xdr:rowOff>6806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,9 +3133,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4480059" y="1483769"/>
-          <a:ext cx="902860" cy="13891"/>
+        <a:xfrm flipV="1">
+          <a:off x="3793318" y="1636889"/>
+          <a:ext cx="411793" cy="6806"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3279,14 +3163,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241774</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185329</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>112005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>244594</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188149</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -3295,7 +3179,7 @@
         <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3187,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3760144" y="1748894"/>
+          <a:off x="3063996" y="1899412"/>
           <a:ext cx="2820" cy="490070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3332,14 +3216,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>216370</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188149</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>284103</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255882</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3348,7 +3232,7 @@
         <xdr:cNvPr id="74" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3095037" y="2248371"/>
+          <a:off x="2427112" y="2398889"/>
           <a:ext cx="1347140" cy="442148"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
@@ -3394,7 +3278,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Slack</a:t>
+            <a:t>Slack_Airbo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3404,7 +3288,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム投票待機画面</a:t>
+            <a:t>部屋画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -3420,23 +3304,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197553</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169331</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>18815</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>293288</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>265066</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>48697</xdr:rowOff>
+      <xdr:rowOff>29882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076220" y="3010371"/>
+          <a:off x="2408294" y="3142074"/>
           <a:ext cx="1375142" cy="330919"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3482,7 +3366,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票未メッセージ表示</a:t>
+            <a:t>投票未開始メッセージ表示</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -3498,23 +3382,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>245421</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>217198</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>250237</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222015</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>18815</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,8 +3409,435 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3763791" y="2690519"/>
-          <a:ext cx="4816" cy="319852"/>
+          <a:off x="3095865" y="2841037"/>
+          <a:ext cx="4817" cy="301037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312216</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1882</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6069549" y="8404357"/>
+          <a:ext cx="9518" cy="299374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>264348</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>40231</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5381978" y="8073438"/>
+          <a:ext cx="1375142" cy="330919"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票結果メッセージ表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47037</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>309007</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4205111" y="1420518"/>
+          <a:ext cx="1221526" cy="436614"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Slack_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ラズパイ信号送信画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>112890</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5769563" y="1480725"/>
+          <a:ext cx="1380068" cy="330919"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>電源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>on,off</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>用メッセージ表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4015</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9296</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5441496" y="1636169"/>
+          <a:ext cx="328067" cy="10016"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272815</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275721</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030148" y="1806222"/>
+          <a:ext cx="2906" cy="489187"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3575,7 +3886,7 @@
         <xdr:cNvPr id="4" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{110EFBF4-B69C-A347-9BE6-3D87592D0AD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110EFBF4-B69C-A347-9BE6-3D87592D0AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +3974,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0954AB0E-C8F7-D34D-B8EB-1BA0A07598DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0954AB0E-C8F7-D34D-B8EB-1BA0A07598DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +4030,7 @@
         <xdr:cNvPr id="42" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0839D32-E066-E747-AF8F-FA2AC2C5DD99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0839D32-E066-E747-AF8F-FA2AC2C5DD99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +4108,7 @@
         <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{710ED4F3-1388-AB41-81ED-C259FAD12978}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710ED4F3-1388-AB41-81ED-C259FAD12978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +4164,7 @@
         <xdr:cNvPr id="48" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73254DA5-2944-F94A-AE9B-8D9F9C99A495}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73254DA5-2944-F94A-AE9B-8D9F9C99A495}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3936,7 +4247,7 @@
         <xdr:cNvPr id="2" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784F27B0-9062-0945-AA86-57D996FABC4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F27B0-9062-0945-AA86-57D996FABC4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4024,7 +4335,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9395352-F696-9B41-A2B6-88D626ADC5DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9395352-F696-9B41-A2B6-88D626ADC5DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4080,7 +4391,7 @@
         <xdr:cNvPr id="4" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D175C31-4DFB-0040-ABC7-4EF6714B66F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D175C31-4DFB-0040-ABC7-4EF6714B66F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,7 +4469,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{391743FC-544B-2745-94E1-9900919E9CFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391743FC-544B-2745-94E1-9900919E9CFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4214,7 +4525,7 @@
         <xdr:cNvPr id="6" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2226A66D-A377-D543-B5F7-E59B01B0EA58}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2226A66D-A377-D543-B5F7-E59B01B0EA58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6106,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="135" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6676,7 +6987,6 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -6723,11 +7033,10 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="N10" s="14"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -6828,11 +7137,10 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="L13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="16"/>
